--- a/biology/Botanique/Impatiens_hians/Impatiens_hians.xlsx
+++ b/biology/Botanique/Impatiens_hians/Impatiens_hians.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Impatiens hians Hook.f. est une espèce de plante à fleurs de la famille des Balsaminaceae et du genre Impatiens, présente en Afrique tropicale.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée.
 </t>
@@ -542,13 +556,15 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (25 janvier 2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (25 janvier 2018) :
 variété Impatiens hians var. bipindensis
-Selon NCBI  (25 janvier 2018)[3] :
+Selon NCBI  (25 janvier 2018) :
 variété Impatiens hians var. bipindensis
-Selon Tropicos                                           (25 janvier 2018)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (25 janvier 2018) (Attention liste brute contenant possiblement des synonymes) :
 variété Impatiens hians var. bipindensis (Gilg) Grey-Wilson
 variété Impatiens hians var. hians</t>
         </is>
@@ -578,9 +594,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Assez rare, vulnérable, la sous-espèce Impatiens hians var. bipindensis (Gilg) Grey-Wilson est présente au Cameroun dans deux régions (Sud-Ouest et Sud) et sur trois sites au Gabon (monts de Cristal[5]). Son épithète spécifique bipindensis fait référence à la localité de Bipindi dans la Région du Sud au Cameroun, où Georg August Zenker récolta plusieurs spécimens en 1901[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assez rare, vulnérable, la sous-espèce Impatiens hians var. bipindensis (Gilg) Grey-Wilson est présente au Cameroun dans deux régions (Sud-Ouest et Sud) et sur trois sites au Gabon (monts de Cristal). Son épithète spécifique bipindensis fait référence à la localité de Bipindi dans la Région du Sud au Cameroun, où Georg August Zenker récolta plusieurs spécimens en 1901.
 </t>
         </is>
       </c>
